--- a/Documentation/Order_22.09.2014.xlsx
+++ b/Documentation/Order_22.09.2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2020" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -611,93 +611,8 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Cambria"/>
+        <scheme val="major"/>
       </font>
     </dxf>
     <dxf>
@@ -747,8 +662,8 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Cambria"/>
-        <scheme val="major"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -781,6 +696,23 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="Cambria"/>
         <scheme val="major"/>
       </font>
@@ -798,8 +730,42 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="Cambria"/>
         <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -833,8 +799,42 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="Cambria"/>
         <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -912,16 +912,16 @@
     <sortCondition ref="E1:E33"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Nick" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Anzahl" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="1. Nachricht" dataDxfId="13" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Feedback" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Zahlung" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="3">
+    <tableColumn id="1" name="Nick" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Anzahl" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" name="1. Nachricht" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="Feedback" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" name="Zahlung" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>SUMIF(E2:E35,"&gt;=20.09.14",B2:B35)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Lieferanschrift" dataDxfId="10" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Email" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="Versand" dataDxfId="8" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Lieferanschrift" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Email" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="8" name="Versand" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
